--- a/Code/Results/Cases/Case_1_106/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_106/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.43005531877079</v>
+        <v>14.25828618208765</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.222424305302404</v>
+        <v>7.523545576203079</v>
       </c>
       <c r="E2">
-        <v>8.025669570160296</v>
+        <v>12.99110612770389</v>
       </c>
       <c r="F2">
-        <v>27.33764104195996</v>
+        <v>39.77527920495806</v>
       </c>
       <c r="G2">
-        <v>35.18935012211135</v>
+        <v>46.55479462329361</v>
       </c>
       <c r="H2">
-        <v>11.88988446809161</v>
+        <v>18.75070558967343</v>
       </c>
       <c r="I2">
-        <v>18.97871123946277</v>
+        <v>29.97735987154836</v>
       </c>
       <c r="J2">
-        <v>6.592742763932112</v>
+        <v>10.43823966562165</v>
       </c>
       <c r="K2">
-        <v>13.4018610878214</v>
+        <v>12.14648907249011</v>
       </c>
       <c r="L2">
-        <v>7.329494187311808</v>
+        <v>11.11085322783178</v>
       </c>
       <c r="M2">
-        <v>10.31199706561283</v>
+        <v>15.89878456166634</v>
       </c>
       <c r="N2">
-        <v>14.40353950419914</v>
+        <v>22.17594656262283</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.87544560094988</v>
+        <v>14.17150529123666</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.191667167904829</v>
+        <v>7.525945128961435</v>
       </c>
       <c r="E3">
-        <v>8.0264173652705</v>
+        <v>12.99760025294545</v>
       </c>
       <c r="F3">
-        <v>27.03063781759778</v>
+        <v>39.83212891890038</v>
       </c>
       <c r="G3">
-        <v>34.51108140785764</v>
+        <v>46.57143555978646</v>
       </c>
       <c r="H3">
-        <v>11.87512653687407</v>
+        <v>18.79309673270426</v>
       </c>
       <c r="I3">
-        <v>19.14709991313699</v>
+        <v>30.06929591569883</v>
       </c>
       <c r="J3">
-        <v>6.596012453047344</v>
+        <v>10.4412275483072</v>
       </c>
       <c r="K3">
-        <v>12.52353299997093</v>
+        <v>11.95509246028224</v>
       </c>
       <c r="L3">
-        <v>7.12679517319917</v>
+        <v>11.10070362062641</v>
       </c>
       <c r="M3">
-        <v>10.03040647253045</v>
+        <v>15.88362711079523</v>
       </c>
       <c r="N3">
-        <v>14.6161750343115</v>
+        <v>22.23881252347295</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.52445826233416</v>
+        <v>14.12047337275954</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.173468689192523</v>
+        <v>7.527796075116091</v>
       </c>
       <c r="E4">
-        <v>8.027768587150447</v>
+        <v>13.0019315126586</v>
       </c>
       <c r="F4">
-        <v>26.86056298411549</v>
+        <v>39.87494313539423</v>
       </c>
       <c r="G4">
-        <v>34.11956073393836</v>
+        <v>46.59325810448418</v>
       </c>
       <c r="H4">
-        <v>11.87336840764354</v>
+        <v>18.82205844737025</v>
       </c>
       <c r="I4">
-        <v>19.26016803139107</v>
+        <v>30.12988288710011</v>
       </c>
       <c r="J4">
-        <v>6.598457868851153</v>
+        <v>10.44322981303387</v>
       </c>
       <c r="K4">
-        <v>11.95385726819756</v>
+        <v>11.83862762975129</v>
       </c>
       <c r="L4">
-        <v>7.002792361757479</v>
+        <v>11.09612419394336</v>
       </c>
       <c r="M4">
-        <v>9.857627578441743</v>
+        <v>15.87652329530162</v>
       </c>
       <c r="N4">
-        <v>14.74969546229992</v>
+        <v>22.27922534786825</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.37898732763446</v>
+        <v>14.10026149916168</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.166222237700625</v>
+        <v>7.528645602364032</v>
       </c>
       <c r="E5">
-        <v>8.028535179207799</v>
+        <v>13.00378313432594</v>
       </c>
       <c r="F5">
-        <v>26.79582133427217</v>
+        <v>39.89437684446278</v>
       </c>
       <c r="G5">
-        <v>33.96630000531541</v>
+        <v>46.60506661136633</v>
       </c>
       <c r="H5">
-        <v>11.87443129402863</v>
+        <v>18.83459782317892</v>
       </c>
       <c r="I5">
-        <v>19.30860583283981</v>
+        <v>30.15561350340877</v>
       </c>
       <c r="J5">
-        <v>6.599561755936177</v>
+        <v>10.44408800488055</v>
       </c>
       <c r="K5">
-        <v>11.714039109087</v>
+        <v>11.79149390836675</v>
       </c>
       <c r="L5">
-        <v>6.952439039751475</v>
+        <v>11.09467553752227</v>
       </c>
       <c r="M5">
-        <v>9.787343566665623</v>
+        <v>15.8741854821578</v>
       </c>
       <c r="N5">
-        <v>14.80487359618531</v>
+        <v>22.29615107451317</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.35469066704665</v>
+        <v>14.09694111102983</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.165029127238356</v>
+        <v>7.528792427377727</v>
       </c>
       <c r="E6">
-        <v>8.02867528135017</v>
+        <v>13.00409582906589</v>
       </c>
       <c r="F6">
-        <v>26.78534455343592</v>
+        <v>39.89772371151072</v>
       </c>
       <c r="G6">
-        <v>33.94123096532506</v>
+        <v>46.60720339748706</v>
       </c>
       <c r="H6">
-        <v>11.87471358033371</v>
+        <v>18.83672449250954</v>
       </c>
       <c r="I6">
-        <v>19.31678951807957</v>
+        <v>30.15994893549382</v>
       </c>
       <c r="J6">
-        <v>6.599751463658722</v>
+        <v>10.44423306145323</v>
       </c>
       <c r="K6">
-        <v>11.67375339611436</v>
+        <v>11.7836889205778</v>
       </c>
       <c r="L6">
-        <v>6.944090644639496</v>
+        <v>11.09446025849184</v>
       </c>
       <c r="M6">
-        <v>9.775683351988206</v>
+        <v>15.87383102008241</v>
       </c>
       <c r="N6">
-        <v>14.81408288636159</v>
+        <v>22.2989892292204</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.5225060021284</v>
+        <v>14.12019840071297</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.173370278261966</v>
+        <v>7.527807146060899</v>
       </c>
       <c r="E7">
-        <v>8.027778061887007</v>
+        <v>13.00195613344656</v>
       </c>
       <c r="F7">
-        <v>26.85967146924247</v>
+        <v>39.87519718474719</v>
       </c>
       <c r="G7">
-        <v>34.11746834373502</v>
+        <v>46.59340555738447</v>
       </c>
       <c r="H7">
-        <v>11.87337561318323</v>
+        <v>18.82222457327041</v>
       </c>
       <c r="I7">
-        <v>19.26081180982164</v>
+        <v>30.13022568391865</v>
       </c>
       <c r="J7">
-        <v>6.598472325026542</v>
+        <v>10.4432412157119</v>
       </c>
       <c r="K7">
-        <v>11.95065409237819</v>
+        <v>11.83799056383989</v>
       </c>
       <c r="L7">
-        <v>7.002112468052607</v>
+        <v>11.09610296398403</v>
       </c>
       <c r="M7">
-        <v>9.856679069888697</v>
+        <v>15.87648950735998</v>
       </c>
       <c r="N7">
-        <v>14.75043647691077</v>
+        <v>22.27945176133209</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.24109952651472</v>
+        <v>14.22790767404657</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.211674821583066</v>
+        <v>7.52429474764928</v>
       </c>
       <c r="E8">
-        <v>8.025737037606797</v>
+        <v>12.99327401951866</v>
       </c>
       <c r="F8">
-        <v>27.2279241230693</v>
+        <v>39.79323855193365</v>
       </c>
       <c r="G8">
-        <v>34.95032240839738</v>
+        <v>46.55812277038749</v>
       </c>
       <c r="H8">
-        <v>11.88324579797636</v>
+        <v>18.76471301722367</v>
       </c>
       <c r="I8">
-        <v>19.03471871735422</v>
+        <v>30.0082008653273</v>
       </c>
       <c r="J8">
-        <v>6.59377757826057</v>
+        <v>10.43923513377651</v>
       </c>
       <c r="K8">
-        <v>13.10529760505881</v>
+        <v>12.080313906078</v>
       </c>
       <c r="L8">
-        <v>7.259546749506514</v>
+        <v>11.10701191261777</v>
       </c>
       <c r="M8">
-        <v>10.21493547615672</v>
+        <v>15.89310299474514</v>
       </c>
       <c r="N8">
-        <v>14.47625566992929</v>
+        <v>22.19724727799954</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.56050046019154</v>
+        <v>14.45617409665446</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.292395648012128</v>
+        <v>7.520390346497599</v>
       </c>
       <c r="E9">
-        <v>8.029223124758079</v>
+        <v>12.97897073429716</v>
       </c>
       <c r="F9">
-        <v>28.09882826271629</v>
+        <v>39.69533935501806</v>
       </c>
       <c r="G9">
-        <v>36.77992254135019</v>
+        <v>46.58105979796133</v>
       </c>
       <c r="H9">
-        <v>11.96310111171568</v>
+        <v>18.67522412872871</v>
       </c>
       <c r="I9">
-        <v>18.67158596574594</v>
+        <v>29.80172320712183</v>
       </c>
       <c r="J9">
-        <v>6.58817913771112</v>
+        <v>10.4327060984384</v>
       </c>
       <c r="K9">
-        <v>15.13025951461976</v>
+        <v>12.56116603464088</v>
       </c>
       <c r="L9">
-        <v>7.765340582224837</v>
+        <v>11.14142194139136</v>
       </c>
       <c r="M9">
-        <v>10.9145106467301</v>
+        <v>15.94301533269294</v>
       </c>
       <c r="N9">
-        <v>13.96099517093092</v>
+        <v>22.05036791108783</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.46786874204633</v>
+        <v>14.63312970831937</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.355376266700557</v>
+        <v>7.519323866086958</v>
       </c>
       <c r="E10">
-        <v>8.036975158464561</v>
+        <v>12.97011391172449</v>
       </c>
       <c r="F10">
-        <v>28.83227797156085</v>
+        <v>39.66178349627917</v>
       </c>
       <c r="G10">
-        <v>38.24112843796757</v>
+        <v>46.65404097967527</v>
       </c>
       <c r="H10">
-        <v>12.06214134888822</v>
+        <v>18.62369588474802</v>
       </c>
       <c r="I10">
-        <v>18.4588452280926</v>
+        <v>29.67000063016216</v>
       </c>
       <c r="J10">
-        <v>6.586469999682841</v>
+        <v>10.42871323265219</v>
       </c>
       <c r="K10">
-        <v>16.47493801190768</v>
+        <v>12.91432910929269</v>
       </c>
       <c r="L10">
-        <v>8.134315995500591</v>
+        <v>11.17450185630048</v>
       </c>
       <c r="M10">
-        <v>11.42189552770553</v>
+        <v>15.99004359113599</v>
       </c>
       <c r="N10">
-        <v>13.59448720212829</v>
+        <v>21.95110071316452</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.86611292558674</v>
+        <v>14.71538336379388</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.384893764982991</v>
+        <v>7.519226434080356</v>
       </c>
       <c r="E11">
-        <v>8.041784435013867</v>
+        <v>12.96644178576217</v>
       </c>
       <c r="F11">
-        <v>29.18674154314525</v>
+        <v>39.65485403633141</v>
       </c>
       <c r="G11">
-        <v>38.93059066608981</v>
+        <v>46.69938695428526</v>
       </c>
       <c r="H11">
-        <v>12.11670867578998</v>
+        <v>18.60334527773175</v>
       </c>
       <c r="I11">
-        <v>18.37503735869779</v>
+        <v>29.61440901344089</v>
       </c>
       <c r="J11">
-        <v>6.586265390209486</v>
+        <v>10.42707034281553</v>
       </c>
       <c r="K11">
-        <v>17.05630642276968</v>
+        <v>13.07423600092659</v>
       </c>
       <c r="L11">
-        <v>8.301024106323618</v>
+        <v>11.19121075089189</v>
       </c>
       <c r="M11">
-        <v>11.65041608453219</v>
+        <v>16.01363707003251</v>
       </c>
       <c r="N11">
-        <v>13.4299947813047</v>
+        <v>21.90780015590341</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.01476452453047</v>
+        <v>14.74676088670891</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.396202480955862</v>
+        <v>7.519244977977654</v>
       </c>
       <c r="E12">
-        <v>8.043804538372051</v>
+        <v>12.96510244298415</v>
       </c>
       <c r="F12">
-        <v>29.32399105681644</v>
+        <v>39.65342782781608</v>
       </c>
       <c r="G12">
-        <v>39.1951739512228</v>
+        <v>46.71829817258028</v>
       </c>
       <c r="H12">
-        <v>12.13880080757475</v>
+        <v>18.59608352197038</v>
       </c>
       <c r="I12">
-        <v>18.34527842830615</v>
+        <v>29.5939802129224</v>
       </c>
       <c r="J12">
-        <v>6.586275038696318</v>
+        <v>10.42647308894264</v>
       </c>
       <c r="K12">
-        <v>17.27215617123146</v>
+        <v>13.13462250082309</v>
       </c>
       <c r="L12">
-        <v>8.363947539824137</v>
+        <v>11.19777356914753</v>
       </c>
       <c r="M12">
-        <v>11.7365589892779</v>
+        <v>16.02288297208255</v>
       </c>
       <c r="N12">
-        <v>13.36799439125534</v>
+        <v>21.89166897245296</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.98284646350349</v>
+        <v>14.739993316494</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.393761005415791</v>
+        <v>7.519238523577229</v>
       </c>
       <c r="E13">
-        <v>8.043360379412071</v>
+        <v>12.96538861846867</v>
       </c>
       <c r="F13">
-        <v>29.29429708169212</v>
+        <v>39.65368173273158</v>
       </c>
       <c r="G13">
-        <v>39.13803646135139</v>
+        <v>46.71414806088333</v>
       </c>
       <c r="H13">
-        <v>12.13397836402381</v>
+        <v>18.59762769486267</v>
       </c>
       <c r="I13">
-        <v>18.35159773242972</v>
+        <v>29.59835223385091</v>
       </c>
       <c r="J13">
-        <v>6.58626900484146</v>
+        <v>10.42660061319575</v>
       </c>
       <c r="K13">
-        <v>17.22585938915135</v>
+        <v>13.12162552095791</v>
       </c>
       <c r="L13">
-        <v>8.350405576097526</v>
+        <v>11.19634972832206</v>
       </c>
       <c r="M13">
-        <v>11.71802496985626</v>
+        <v>16.02087792406744</v>
       </c>
       <c r="N13">
-        <v>13.38133494555898</v>
+        <v>21.89513130862704</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.8783860903219</v>
+        <v>14.71796033561315</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.385821473025278</v>
+        <v>7.519226850420576</v>
       </c>
       <c r="E14">
-        <v>8.041946555166607</v>
+        <v>12.96633057147972</v>
       </c>
       <c r="F14">
-        <v>29.19797242271929</v>
+        <v>39.6547127017474</v>
       </c>
       <c r="G14">
-        <v>38.95228828480636</v>
+        <v>46.70090797217662</v>
       </c>
       <c r="H14">
-        <v>12.11849722823074</v>
+        <v>18.60273893746696</v>
       </c>
       <c r="I14">
-        <v>18.37254877404026</v>
+        <v>29.61271584741797</v>
       </c>
       <c r="J14">
-        <v>6.5862644088773</v>
+        <v>10.42702070831198</v>
       </c>
       <c r="K14">
-        <v>17.07415036761734</v>
+        <v>13.07920770718502</v>
       </c>
       <c r="L14">
-        <v>8.306205184553225</v>
+        <v>11.19174597720453</v>
       </c>
       <c r="M14">
-        <v>11.65751132124875</v>
+        <v>16.0143915202152</v>
       </c>
       <c r="N14">
-        <v>13.42488836307046</v>
+        <v>21.906467713452</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.81411878230328</v>
+        <v>14.70449375518723</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.380975555395433</v>
+        <v>7.519226910737464</v>
       </c>
       <c r="E15">
-        <v>8.041106908055562</v>
+        <v>12.96691421098936</v>
       </c>
       <c r="F15">
-        <v>29.13936514243217</v>
+        <v>39.65550015871372</v>
       </c>
       <c r="G15">
-        <v>38.83896617187626</v>
+        <v>46.6930243555412</v>
       </c>
       <c r="H15">
-        <v>12.10920244270548</v>
+        <v>18.6059276248442</v>
       </c>
       <c r="I15">
-        <v>18.38564286295044</v>
+        <v>29.6215950468325</v>
       </c>
       <c r="J15">
-        <v>6.58627308965318</v>
+        <v>10.42728126569668</v>
       </c>
       <c r="K15">
-        <v>16.98066583915022</v>
+        <v>13.05320213861875</v>
       </c>
       <c r="L15">
-        <v>8.279103309831507</v>
+        <v>11.18895661779513</v>
       </c>
       <c r="M15">
-        <v>11.62039205722837</v>
+        <v>16.0104588382502</v>
       </c>
       <c r="N15">
-        <v>13.45160278743402</v>
+        <v>21.9134461687138</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.44154424878345</v>
+        <v>14.62778764141835</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.353465204223676</v>
+        <v>7.519338008585893</v>
       </c>
       <c r="E16">
-        <v>8.036687878980974</v>
+        <v>12.9703610659643</v>
       </c>
       <c r="F16">
-        <v>28.8095342919592</v>
+        <v>39.66240402804391</v>
       </c>
       <c r="G16">
-        <v>38.19656319853371</v>
+        <v>46.65132137792498</v>
       </c>
       <c r="H16">
-        <v>12.05877186249064</v>
+        <v>18.62508804427538</v>
       </c>
       <c r="I16">
-        <v>18.46459266603387</v>
+        <v>29.67372079112774</v>
       </c>
       <c r="J16">
-        <v>6.586495294624325</v>
+        <v>10.42882408397732</v>
       </c>
       <c r="K16">
-        <v>16.43633887083071</v>
+        <v>12.90385864700819</v>
       </c>
       <c r="L16">
-        <v>8.123394607863508</v>
+        <v>11.17344303209777</v>
       </c>
       <c r="M16">
-        <v>11.40690946328998</v>
+        <v>15.9885455683247</v>
       </c>
       <c r="N16">
-        <v>13.60527943522675</v>
+        <v>21.95396776482239</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.20920956786209</v>
+        <v>14.58116461196083</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.33681487542109</v>
+        <v>7.519505244610778</v>
       </c>
       <c r="E17">
-        <v>8.034315361995461</v>
+        <v>12.97256692939496</v>
       </c>
       <c r="F17">
-        <v>28.61254603333714</v>
+        <v>39.6687738412092</v>
       </c>
       <c r="G17">
-        <v>37.80876421232578</v>
+        <v>46.62884457892896</v>
       </c>
       <c r="H17">
-        <v>12.030314079721</v>
+        <v>18.63763393239012</v>
       </c>
       <c r="I17">
-        <v>18.51642497669429</v>
+        <v>29.70680712537015</v>
       </c>
       <c r="J17">
-        <v>6.586781573067999</v>
+        <v>10.42981493369997</v>
       </c>
       <c r="K17">
-        <v>16.09468422854411</v>
+        <v>12.81200671510166</v>
       </c>
       <c r="L17">
-        <v>8.027548923265282</v>
+        <v>11.16434902074418</v>
       </c>
       <c r="M17">
-        <v>11.27531030528013</v>
+        <v>15.97566264612589</v>
       </c>
       <c r="N17">
-        <v>13.700105116955</v>
+        <v>21.97930112716664</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.07421273724088</v>
+        <v>14.55451490724738</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.327319248872104</v>
+        <v>7.519637946972741</v>
       </c>
       <c r="E18">
-        <v>8.033070552596055</v>
+        <v>12.97386928197423</v>
       </c>
       <c r="F18">
-        <v>28.50120119539275</v>
+        <v>39.67322223037793</v>
       </c>
       <c r="G18">
-        <v>37.58804564279643</v>
+        <v>46.61706033471048</v>
       </c>
       <c r="H18">
-        <v>12.0148377386001</v>
+        <v>18.64514081518287</v>
       </c>
       <c r="I18">
-        <v>18.54745106001386</v>
+        <v>29.726245038787</v>
       </c>
       <c r="J18">
-        <v>6.586999844481538</v>
+        <v>10.43040117786005</v>
       </c>
       <c r="K18">
-        <v>15.89531460278596</v>
+        <v>12.75910883628157</v>
       </c>
       <c r="L18">
-        <v>7.972315750221233</v>
+        <v>11.159274906213</v>
       </c>
       <c r="M18">
-        <v>11.19940556498087</v>
+        <v>15.9684601171371</v>
       </c>
       <c r="N18">
-        <v>13.75485862509048</v>
+        <v>21.99404702770142</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.02827315668429</v>
+        <v>14.5455210772437</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.324117960247788</v>
+        <v>7.519689158278569</v>
       </c>
       <c r="E19">
-        <v>8.03266923945889</v>
+        <v>12.97431601003953</v>
       </c>
       <c r="F19">
-        <v>28.46383704268478</v>
+        <v>39.67486315461372</v>
       </c>
       <c r="G19">
-        <v>37.51371680962318</v>
+        <v>46.61326702594681</v>
       </c>
       <c r="H19">
-        <v>12.00974904020584</v>
+        <v>18.64773245627013</v>
       </c>
       <c r="I19">
-        <v>18.55816108302345</v>
+        <v>29.73289637788419</v>
       </c>
       <c r="J19">
-        <v>6.587082818148147</v>
+        <v>10.43060247763731</v>
       </c>
       <c r="K19">
-        <v>15.82731869951847</v>
+        <v>12.74118884063816</v>
       </c>
       <c r="L19">
-        <v>7.953598023637289</v>
+        <v>11.15758387727336</v>
       </c>
       <c r="M19">
-        <v>11.17367110883018</v>
+        <v>15.9660572256696</v>
       </c>
       <c r="N19">
-        <v>13.77343462401292</v>
+        <v>21.99906979793223</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.23408370251198</v>
+        <v>14.5861106303525</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.338578884044193</v>
+        <v>7.51948366540382</v>
       </c>
       <c r="E20">
-        <v>8.034555421426671</v>
+        <v>12.9723286349758</v>
       </c>
       <c r="F20">
-        <v>28.63331294903646</v>
+        <v>39.66801455987132</v>
       </c>
       <c r="G20">
-        <v>37.84980506715825</v>
+        <v>46.63111893648793</v>
       </c>
       <c r="H20">
-        <v>12.03325072001429</v>
+        <v>18.63626830030647</v>
       </c>
       <c r="I20">
-        <v>18.51078095602011</v>
+        <v>29.70324285134174</v>
       </c>
       <c r="J20">
-        <v>6.586745516732185</v>
+        <v>10.42970776613171</v>
       </c>
       <c r="K20">
-        <v>16.13134941502006</v>
+        <v>12.82179188761464</v>
       </c>
       <c r="L20">
-        <v>8.037763073453542</v>
+        <v>11.16530091761626</v>
       </c>
       <c r="M20">
-        <v>11.28934172593865</v>
+        <v>15.97701262538031</v>
       </c>
       <c r="N20">
-        <v>13.68998901584853</v>
+        <v>21.9765862627767</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.90912756366464</v>
+        <v>14.72442589992</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.38814989330275</v>
+        <v>7.519228777021909</v>
       </c>
       <c r="E21">
-        <v>8.042356308108658</v>
+        <v>12.96605250803083</v>
       </c>
       <c r="F21">
-        <v>29.2261830778737</v>
+        <v>39.65437738178337</v>
       </c>
       <c r="G21">
-        <v>39.00675250700374</v>
+        <v>46.70474975727949</v>
       </c>
       <c r="H21">
-        <v>12.12300515539413</v>
+        <v>18.60122557416582</v>
       </c>
       <c r="I21">
-        <v>18.3663403475135</v>
+        <v>29.60848001081868</v>
       </c>
       <c r="J21">
-        <v>6.586263353919358</v>
+        <v>10.42689664173747</v>
       </c>
       <c r="K21">
-        <v>17.1188272356248</v>
+        <v>13.09167183286675</v>
       </c>
       <c r="L21">
-        <v>8.319193781782108</v>
+        <v>11.19309184566209</v>
       </c>
       <c r="M21">
-        <v>11.67529677426594</v>
+        <v>16.01628831810688</v>
       </c>
       <c r="N21">
-        <v>13.41208808032357</v>
+        <v>21.90313073220548</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.33772822073512</v>
+        <v>14.81615197040081</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.421315100994304</v>
+        <v>7.519385187234845</v>
       </c>
       <c r="E22">
-        <v>8.048621966938256</v>
+        <v>12.9622491481731</v>
       </c>
       <c r="F22">
-        <v>29.63128411728371</v>
+        <v>39.65244574289806</v>
       </c>
       <c r="G22">
-        <v>39.78325797776098</v>
+        <v>46.76300743267556</v>
       </c>
       <c r="H22">
-        <v>12.19002052690167</v>
+        <v>18.58091453744396</v>
       </c>
       <c r="I22">
-        <v>18.28352306023048</v>
+        <v>29.55017562936882</v>
       </c>
       <c r="J22">
-        <v>6.586458649272832</v>
+        <v>10.42520435366046</v>
       </c>
       <c r="K22">
-        <v>17.73915763795603</v>
+        <v>13.26705619122902</v>
       </c>
       <c r="L22">
-        <v>8.501913522921905</v>
+        <v>11.21262596234529</v>
       </c>
       <c r="M22">
-        <v>11.9252270808945</v>
+        <v>16.04377087332548</v>
       </c>
       <c r="N22">
-        <v>13.23213393183374</v>
+        <v>21.85667203162186</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.11014478951643</v>
+        <v>14.76708197895713</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.40354160844897</v>
+        <v>7.519272258683912</v>
       </c>
       <c r="E23">
-        <v>8.045165891091788</v>
+        <v>12.96425179971213</v>
       </c>
       <c r="F23">
-        <v>29.41345214938619</v>
+        <v>39.65283834949908</v>
       </c>
       <c r="G23">
-        <v>39.36697572906425</v>
+        <v>46.73098957283273</v>
       </c>
       <c r="H23">
-        <v>12.15346853506532</v>
+        <v>18.59151773713232</v>
       </c>
       <c r="I23">
-        <v>18.32662516672507</v>
+        <v>29.58096177225329</v>
       </c>
       <c r="J23">
-        <v>6.586306016543614</v>
+        <v>10.42609432150565</v>
       </c>
       <c r="K23">
-        <v>17.4103461227667</v>
+        <v>13.17356046978804</v>
       </c>
       <c r="L23">
-        <v>8.404515460864147</v>
+        <v>11.20207591438533</v>
       </c>
       <c r="M23">
-        <v>11.79206511852722</v>
+        <v>16.02893862485119</v>
       </c>
       <c r="N23">
-        <v>13.32803707275264</v>
+        <v>21.88132659119717</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.22284253809323</v>
+        <v>14.58387405247928</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.337781136783406</v>
+        <v>7.519493307493977</v>
       </c>
       <c r="E24">
-        <v>8.034446520406952</v>
+        <v>12.97243626145532</v>
       </c>
       <c r="F24">
-        <v>28.62391829082674</v>
+        <v>39.66835538160755</v>
       </c>
       <c r="G24">
-        <v>37.83124353904132</v>
+        <v>46.63008715418754</v>
       </c>
       <c r="H24">
-        <v>12.03192031476535</v>
+        <v>18.6368847865085</v>
       </c>
       <c r="I24">
-        <v>18.51332880435239</v>
+        <v>29.70485296335401</v>
       </c>
       <c r="J24">
-        <v>6.586761650934165</v>
+        <v>10.42975616491087</v>
       </c>
       <c r="K24">
-        <v>16.11478227049987</v>
+        <v>12.81736828995986</v>
       </c>
       <c r="L24">
-        <v>8.03314565852998</v>
+        <v>11.16487008461279</v>
       </c>
       <c r="M24">
-        <v>11.28299888395806</v>
+        <v>15.976401663844</v>
       </c>
       <c r="N24">
-        <v>13.694561764689</v>
+        <v>21.97781308776393</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.21401983181384</v>
+        <v>14.39271244872119</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.269933717658415</v>
+        <v>7.521128906549457</v>
       </c>
       <c r="E25">
-        <v>8.027417255507407</v>
+        <v>12.9825495234807</v>
       </c>
       <c r="F25">
-        <v>27.84696708404911</v>
+        <v>39.71508838165555</v>
       </c>
       <c r="G25">
-        <v>36.26418994926331</v>
+        <v>46.56498846628491</v>
       </c>
       <c r="H25">
-        <v>11.93466037772946</v>
+        <v>18.69693744314867</v>
       </c>
       <c r="I25">
-        <v>18.76072574693568</v>
+        <v>29.85407091560747</v>
       </c>
       <c r="J25">
-        <v>6.589287442382025</v>
+        <v>10.43433083176724</v>
       </c>
       <c r="K25">
-        <v>14.60779898036683</v>
+        <v>12.43085002537498</v>
       </c>
       <c r="L25">
-        <v>7.628757543871731</v>
+        <v>11.13073278361133</v>
       </c>
       <c r="M25">
-        <v>10.72609426810521</v>
+        <v>15.92767758453951</v>
       </c>
       <c r="N25">
-        <v>14.09814867204782</v>
+        <v>22.08857827405298</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_106/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_106/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.25828618208765</v>
+        <v>11.43005531877083</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.523545576203079</v>
+        <v>4.222424305302459</v>
       </c>
       <c r="E2">
-        <v>12.99110612770389</v>
+        <v>8.025669570160364</v>
       </c>
       <c r="F2">
-        <v>39.77527920495806</v>
+        <v>27.33764104196</v>
       </c>
       <c r="G2">
-        <v>46.55479462329361</v>
+        <v>35.18935012211142</v>
       </c>
       <c r="H2">
-        <v>18.75070558967343</v>
+        <v>11.8898844680915</v>
       </c>
       <c r="I2">
-        <v>29.97735987154836</v>
+        <v>18.9787112394628</v>
       </c>
       <c r="J2">
-        <v>10.43823966562165</v>
+        <v>6.592742763932111</v>
       </c>
       <c r="K2">
-        <v>12.14648907249011</v>
+        <v>13.40186108782136</v>
       </c>
       <c r="L2">
-        <v>11.11085322783178</v>
+        <v>7.32949418731179</v>
       </c>
       <c r="M2">
-        <v>15.89878456166634</v>
+        <v>10.31199706561286</v>
       </c>
       <c r="N2">
-        <v>22.17594656262283</v>
+        <v>14.40353950419911</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.17150529123666</v>
+        <v>10.87544560094982</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.525945128961435</v>
+        <v>4.191667167904887</v>
       </c>
       <c r="E3">
-        <v>12.99760025294545</v>
+        <v>8.026417365270435</v>
       </c>
       <c r="F3">
-        <v>39.83212891890038</v>
+        <v>27.03063781759771</v>
       </c>
       <c r="G3">
-        <v>46.57143555978646</v>
+        <v>34.51108140785762</v>
       </c>
       <c r="H3">
-        <v>18.79309673270426</v>
+        <v>11.87512653687402</v>
       </c>
       <c r="I3">
-        <v>30.06929591569883</v>
+        <v>19.14709991313687</v>
       </c>
       <c r="J3">
-        <v>10.4412275483072</v>
+        <v>6.596012453047242</v>
       </c>
       <c r="K3">
-        <v>11.95509246028224</v>
+        <v>12.52353299997094</v>
       </c>
       <c r="L3">
-        <v>11.10070362062641</v>
+        <v>7.126795173199135</v>
       </c>
       <c r="M3">
-        <v>15.88362711079523</v>
+        <v>10.03040647253041</v>
       </c>
       <c r="N3">
-        <v>22.23881252347295</v>
+        <v>14.61617503431144</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.12047337275954</v>
+        <v>10.52445826233418</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.527796075116091</v>
+        <v>4.173468689192459</v>
       </c>
       <c r="E4">
-        <v>13.0019315126586</v>
+        <v>8.027768587150382</v>
       </c>
       <c r="F4">
-        <v>39.87494313539423</v>
+        <v>26.86056298411555</v>
       </c>
       <c r="G4">
-        <v>46.59325810448418</v>
+        <v>34.11956073393855</v>
       </c>
       <c r="H4">
-        <v>18.82205844737025</v>
+        <v>11.87336840764354</v>
       </c>
       <c r="I4">
-        <v>30.12988288710011</v>
+        <v>19.26016803139107</v>
       </c>
       <c r="J4">
-        <v>10.44322981303387</v>
+        <v>6.598457868851121</v>
       </c>
       <c r="K4">
-        <v>11.83862762975129</v>
+        <v>11.95385726819755</v>
       </c>
       <c r="L4">
-        <v>11.09612419394336</v>
+        <v>7.002792361757482</v>
       </c>
       <c r="M4">
-        <v>15.87652329530162</v>
+        <v>9.857627578441745</v>
       </c>
       <c r="N4">
-        <v>22.27922534786825</v>
+        <v>14.74969546229992</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.10026149916168</v>
+        <v>10.3789873276344</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.528645602364032</v>
+        <v>4.166222237700572</v>
       </c>
       <c r="E5">
-        <v>13.00378313432594</v>
+        <v>8.028535179207665</v>
       </c>
       <c r="F5">
-        <v>39.89437684446278</v>
+        <v>26.79582133427218</v>
       </c>
       <c r="G5">
-        <v>46.60506661136633</v>
+        <v>33.96630000531561</v>
       </c>
       <c r="H5">
-        <v>18.83459782317892</v>
+        <v>11.87443129402863</v>
       </c>
       <c r="I5">
-        <v>30.15561350340877</v>
+        <v>19.30860583283978</v>
       </c>
       <c r="J5">
-        <v>10.44408800488055</v>
+        <v>6.599561755936111</v>
       </c>
       <c r="K5">
-        <v>11.79149390836675</v>
+        <v>11.714039109087</v>
       </c>
       <c r="L5">
-        <v>11.09467553752227</v>
+        <v>6.952439039751475</v>
       </c>
       <c r="M5">
-        <v>15.8741854821578</v>
+        <v>9.787343566665601</v>
       </c>
       <c r="N5">
-        <v>22.29615107451317</v>
+        <v>14.80487359618531</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.09694111102983</v>
+        <v>10.35469066704664</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.528792427377727</v>
+        <v>4.165029127238232</v>
       </c>
       <c r="E6">
-        <v>13.00409582906589</v>
+        <v>8.028675281350168</v>
       </c>
       <c r="F6">
-        <v>39.89772371151072</v>
+        <v>26.78534455343577</v>
       </c>
       <c r="G6">
-        <v>46.60720339748706</v>
+        <v>33.94123096532506</v>
       </c>
       <c r="H6">
-        <v>18.83672449250954</v>
+        <v>11.87471358033365</v>
       </c>
       <c r="I6">
-        <v>30.15994893549382</v>
+        <v>19.31678951807951</v>
       </c>
       <c r="J6">
-        <v>10.44423306145323</v>
+        <v>6.59975146365879</v>
       </c>
       <c r="K6">
-        <v>11.7836889205778</v>
+        <v>11.67375339611434</v>
       </c>
       <c r="L6">
-        <v>11.09446025849184</v>
+        <v>6.944090644639496</v>
       </c>
       <c r="M6">
-        <v>15.87383102008241</v>
+        <v>9.775683351988205</v>
       </c>
       <c r="N6">
-        <v>22.2989892292204</v>
+        <v>14.81408288636155</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.12019840071297</v>
+        <v>10.52250600212841</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.527807146060899</v>
+        <v>4.173370278261838</v>
       </c>
       <c r="E7">
-        <v>13.00195613344656</v>
+        <v>8.027778061887005</v>
       </c>
       <c r="F7">
-        <v>39.87519718474719</v>
+        <v>26.85967146924256</v>
       </c>
       <c r="G7">
-        <v>46.59340555738447</v>
+        <v>34.11746834373518</v>
       </c>
       <c r="H7">
-        <v>18.82222457327041</v>
+        <v>11.87337561318329</v>
       </c>
       <c r="I7">
-        <v>30.13022568391865</v>
+        <v>19.26081180982165</v>
       </c>
       <c r="J7">
-        <v>10.4432412157119</v>
+        <v>6.598472325026574</v>
       </c>
       <c r="K7">
-        <v>11.83799056383989</v>
+        <v>11.95065409237812</v>
       </c>
       <c r="L7">
-        <v>11.09610296398403</v>
+        <v>7.00211246805268</v>
       </c>
       <c r="M7">
-        <v>15.87648950735998</v>
+        <v>9.856679069888759</v>
       </c>
       <c r="N7">
-        <v>22.27945176133209</v>
+        <v>14.75043647691077</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.22790767404657</v>
+        <v>11.24109952651476</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.52429474764928</v>
+        <v>4.211674821583072</v>
       </c>
       <c r="E8">
-        <v>12.99327401951866</v>
+        <v>8.025737037606728</v>
       </c>
       <c r="F8">
-        <v>39.79323855193365</v>
+        <v>27.22792412306928</v>
       </c>
       <c r="G8">
-        <v>46.55812277038749</v>
+        <v>34.95032240839739</v>
       </c>
       <c r="H8">
-        <v>18.76471301722367</v>
+        <v>11.8832457979763</v>
       </c>
       <c r="I8">
-        <v>30.0082008653273</v>
+        <v>19.03471871735427</v>
       </c>
       <c r="J8">
-        <v>10.43923513377651</v>
+        <v>6.593777578260504</v>
       </c>
       <c r="K8">
-        <v>12.080313906078</v>
+        <v>13.10529760505878</v>
       </c>
       <c r="L8">
-        <v>11.10701191261777</v>
+        <v>7.259546749506493</v>
       </c>
       <c r="M8">
-        <v>15.89310299474514</v>
+        <v>10.21493547615672</v>
       </c>
       <c r="N8">
-        <v>22.19724727799954</v>
+        <v>14.47625566992929</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.45617409665446</v>
+        <v>12.56050046019153</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.520390346497599</v>
+        <v>4.292395648012202</v>
       </c>
       <c r="E9">
-        <v>12.97897073429716</v>
+        <v>8.029223124758209</v>
       </c>
       <c r="F9">
-        <v>39.69533935501806</v>
+        <v>28.0988282627164</v>
       </c>
       <c r="G9">
-        <v>46.58105979796133</v>
+        <v>36.77992254135024</v>
       </c>
       <c r="H9">
-        <v>18.67522412872871</v>
+        <v>11.96310111171572</v>
       </c>
       <c r="I9">
-        <v>29.80172320712183</v>
+        <v>18.67158596574605</v>
       </c>
       <c r="J9">
-        <v>10.4327060984384</v>
+        <v>6.588179137711153</v>
       </c>
       <c r="K9">
-        <v>12.56116603464088</v>
+        <v>15.13025951461974</v>
       </c>
       <c r="L9">
-        <v>11.14142194139136</v>
+        <v>7.765340582224865</v>
       </c>
       <c r="M9">
-        <v>15.94301533269294</v>
+        <v>10.91451064673014</v>
       </c>
       <c r="N9">
-        <v>22.05036791108783</v>
+        <v>13.96099517093099</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.63312970831937</v>
+        <v>13.46786874204633</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.519323866086958</v>
+        <v>4.3553762667005</v>
       </c>
       <c r="E10">
-        <v>12.97011391172449</v>
+        <v>8.036975158464424</v>
       </c>
       <c r="F10">
-        <v>39.66178349627917</v>
+        <v>28.83227797156058</v>
       </c>
       <c r="G10">
-        <v>46.65404097967527</v>
+        <v>38.24112843796728</v>
       </c>
       <c r="H10">
-        <v>18.62369588474802</v>
+        <v>12.06214134888813</v>
       </c>
       <c r="I10">
-        <v>29.67000063016216</v>
+        <v>18.45884522809233</v>
       </c>
       <c r="J10">
-        <v>10.42871323265219</v>
+        <v>6.586469999682842</v>
       </c>
       <c r="K10">
-        <v>12.91432910929269</v>
+        <v>16.47493801190774</v>
       </c>
       <c r="L10">
-        <v>11.17450185630048</v>
+        <v>8.134315995500552</v>
       </c>
       <c r="M10">
-        <v>15.99004359113599</v>
+        <v>11.42189552770546</v>
       </c>
       <c r="N10">
-        <v>21.95110071316452</v>
+        <v>13.59448720212809</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.71538336379388</v>
+        <v>13.86611292558674</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.519226434080356</v>
+        <v>4.384893764983111</v>
       </c>
       <c r="E11">
-        <v>12.96644178576217</v>
+        <v>8.041784435013932</v>
       </c>
       <c r="F11">
-        <v>39.65485403633141</v>
+        <v>29.18674154314525</v>
       </c>
       <c r="G11">
-        <v>46.69938695428526</v>
+        <v>38.93059066608972</v>
       </c>
       <c r="H11">
-        <v>18.60334527773175</v>
+        <v>12.11670867578998</v>
       </c>
       <c r="I11">
-        <v>29.61440901344089</v>
+        <v>18.37503735869781</v>
       </c>
       <c r="J11">
-        <v>10.42707034281553</v>
+        <v>6.586265390209451</v>
       </c>
       <c r="K11">
-        <v>13.07423600092659</v>
+        <v>17.05630642276974</v>
       </c>
       <c r="L11">
-        <v>11.19121075089189</v>
+        <v>8.301024106323593</v>
       </c>
       <c r="M11">
-        <v>16.01363707003251</v>
+        <v>11.65041608453217</v>
       </c>
       <c r="N11">
-        <v>21.90780015590341</v>
+        <v>13.42999478130474</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.74676088670891</v>
+        <v>14.01476452453048</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.519244977977654</v>
+        <v>4.396202480955854</v>
       </c>
       <c r="E12">
-        <v>12.96510244298415</v>
+        <v>8.043804538371848</v>
       </c>
       <c r="F12">
-        <v>39.65342782781608</v>
+        <v>29.32399105681642</v>
       </c>
       <c r="G12">
-        <v>46.71829817258028</v>
+        <v>39.19517395122271</v>
       </c>
       <c r="H12">
-        <v>18.59608352197038</v>
+        <v>12.13880080757476</v>
       </c>
       <c r="I12">
-        <v>29.5939802129224</v>
+        <v>18.34527842830607</v>
       </c>
       <c r="J12">
-        <v>10.42647308894264</v>
+        <v>6.586275038696217</v>
       </c>
       <c r="K12">
-        <v>13.13462250082309</v>
+        <v>17.27215617123146</v>
       </c>
       <c r="L12">
-        <v>11.19777356914753</v>
+        <v>8.36394753982411</v>
       </c>
       <c r="M12">
-        <v>16.02288297208255</v>
+        <v>11.73655898927786</v>
       </c>
       <c r="N12">
-        <v>21.89166897245296</v>
+        <v>13.36799439125527</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.739993316494</v>
+        <v>13.98284646350347</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.519238523577229</v>
+        <v>4.393761005415791</v>
       </c>
       <c r="E13">
-        <v>12.96538861846867</v>
+        <v>8.043360379411938</v>
       </c>
       <c r="F13">
-        <v>39.65368173273158</v>
+        <v>29.29429708169212</v>
       </c>
       <c r="G13">
-        <v>46.71414806088333</v>
+        <v>39.13803646135135</v>
       </c>
       <c r="H13">
-        <v>18.59762769486267</v>
+        <v>12.13397836402385</v>
       </c>
       <c r="I13">
-        <v>29.59835223385091</v>
+        <v>18.35159773242964</v>
       </c>
       <c r="J13">
-        <v>10.42660061319575</v>
+        <v>6.586269004841358</v>
       </c>
       <c r="K13">
-        <v>13.12162552095791</v>
+        <v>17.22585938915136</v>
       </c>
       <c r="L13">
-        <v>11.19634972832206</v>
+        <v>8.350405576097506</v>
       </c>
       <c r="M13">
-        <v>16.02087792406744</v>
+        <v>11.71802496985624</v>
       </c>
       <c r="N13">
-        <v>21.89513130862704</v>
+        <v>13.38133494555898</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.71796033561315</v>
+        <v>13.8783860903219</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.519226850420576</v>
+        <v>4.385821473025274</v>
       </c>
       <c r="E14">
-        <v>12.96633057147972</v>
+        <v>8.04194655516654</v>
       </c>
       <c r="F14">
-        <v>39.6547127017474</v>
+        <v>29.19797242271934</v>
       </c>
       <c r="G14">
-        <v>46.70090797217662</v>
+        <v>38.95228828480642</v>
       </c>
       <c r="H14">
-        <v>18.60273893746696</v>
+        <v>12.11849722823077</v>
       </c>
       <c r="I14">
-        <v>29.61271584741797</v>
+        <v>18.37254877404033</v>
       </c>
       <c r="J14">
-        <v>10.42702070831198</v>
+        <v>6.586264408877233</v>
       </c>
       <c r="K14">
-        <v>13.07920770718502</v>
+        <v>17.07415036761731</v>
       </c>
       <c r="L14">
-        <v>11.19174597720453</v>
+        <v>8.3062051845532</v>
       </c>
       <c r="M14">
-        <v>16.0143915202152</v>
+        <v>11.65751132124874</v>
       </c>
       <c r="N14">
-        <v>21.906467713452</v>
+        <v>13.42488836307049</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.70449375518723</v>
+        <v>13.81411878230326</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.519226910737464</v>
+        <v>4.380975555395433</v>
       </c>
       <c r="E15">
-        <v>12.96691421098936</v>
+        <v>8.041106908055561</v>
       </c>
       <c r="F15">
-        <v>39.65550015871372</v>
+        <v>29.13936514243226</v>
       </c>
       <c r="G15">
-        <v>46.6930243555412</v>
+        <v>38.83896617187635</v>
       </c>
       <c r="H15">
-        <v>18.6059276248442</v>
+        <v>12.10920244270548</v>
       </c>
       <c r="I15">
-        <v>29.6215950468325</v>
+        <v>18.38564286295049</v>
       </c>
       <c r="J15">
-        <v>10.42728126569668</v>
+        <v>6.58627308965318</v>
       </c>
       <c r="K15">
-        <v>13.05320213861875</v>
+        <v>16.98066583915016</v>
       </c>
       <c r="L15">
-        <v>11.18895661779513</v>
+        <v>8.279103309831566</v>
       </c>
       <c r="M15">
-        <v>16.0104588382502</v>
+        <v>11.62039205722841</v>
       </c>
       <c r="N15">
-        <v>21.9134461687138</v>
+        <v>13.45160278743406</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.62778764141835</v>
+        <v>13.44154424878346</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.519338008585893</v>
+        <v>4.353465204223558</v>
       </c>
       <c r="E16">
-        <v>12.9703610659643</v>
+        <v>8.036687878980844</v>
       </c>
       <c r="F16">
-        <v>39.66240402804391</v>
+        <v>28.80953429195918</v>
       </c>
       <c r="G16">
-        <v>46.65132137792498</v>
+        <v>38.1965631985338</v>
       </c>
       <c r="H16">
-        <v>18.62508804427538</v>
+        <v>12.05877186249064</v>
       </c>
       <c r="I16">
-        <v>29.67372079112774</v>
+        <v>18.46459266603387</v>
       </c>
       <c r="J16">
-        <v>10.42882408397732</v>
+        <v>6.586495294624292</v>
       </c>
       <c r="K16">
-        <v>12.90385864700819</v>
+        <v>16.43633887083067</v>
       </c>
       <c r="L16">
-        <v>11.17344303209777</v>
+        <v>8.123394607863506</v>
       </c>
       <c r="M16">
-        <v>15.9885455683247</v>
+        <v>11.40690946328999</v>
       </c>
       <c r="N16">
-        <v>21.95396776482239</v>
+        <v>13.60527943522671</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.58116461196083</v>
+        <v>13.20920956786206</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.519505244610778</v>
+        <v>4.336814875420957</v>
       </c>
       <c r="E17">
-        <v>12.97256692939496</v>
+        <v>8.034315361995528</v>
       </c>
       <c r="F17">
-        <v>39.6687738412092</v>
+        <v>28.61254603333703</v>
       </c>
       <c r="G17">
-        <v>46.62884457892896</v>
+        <v>37.80876421232565</v>
       </c>
       <c r="H17">
-        <v>18.63763393239012</v>
+        <v>12.030314079721</v>
       </c>
       <c r="I17">
-        <v>29.70680712537015</v>
+        <v>18.51642497669419</v>
       </c>
       <c r="J17">
-        <v>10.42981493369997</v>
+        <v>6.586781573067996</v>
       </c>
       <c r="K17">
-        <v>12.81200671510166</v>
+        <v>16.09468422854416</v>
       </c>
       <c r="L17">
-        <v>11.16434902074418</v>
+        <v>8.027548923265302</v>
       </c>
       <c r="M17">
-        <v>15.97566264612589</v>
+        <v>11.27531030528013</v>
       </c>
       <c r="N17">
-        <v>21.97930112716664</v>
+        <v>13.700105116955</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.55451490724738</v>
+        <v>13.07421273724088</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.519637946972741</v>
+        <v>4.327319248871984</v>
       </c>
       <c r="E18">
-        <v>12.97386928197423</v>
+        <v>8.033070552595989</v>
       </c>
       <c r="F18">
-        <v>39.67322223037793</v>
+        <v>28.5012011953928</v>
       </c>
       <c r="G18">
-        <v>46.61706033471048</v>
+        <v>37.58804564279656</v>
       </c>
       <c r="H18">
-        <v>18.64514081518287</v>
+        <v>12.01483773860013</v>
       </c>
       <c r="I18">
-        <v>29.726245038787</v>
+        <v>18.54745106001391</v>
       </c>
       <c r="J18">
-        <v>10.43040117786005</v>
+        <v>6.586999844481539</v>
       </c>
       <c r="K18">
-        <v>12.75910883628157</v>
+        <v>15.89531460278593</v>
       </c>
       <c r="L18">
-        <v>11.159274906213</v>
+        <v>7.972315750221279</v>
       </c>
       <c r="M18">
-        <v>15.9684601171371</v>
+        <v>11.19940556498089</v>
       </c>
       <c r="N18">
-        <v>21.99404702770142</v>
+        <v>13.75485862509051</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.5455210772437</v>
+        <v>13.02827315668428</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.519689158278569</v>
+        <v>4.324117960247782</v>
       </c>
       <c r="E19">
-        <v>12.97431601003953</v>
+        <v>8.032669239458958</v>
       </c>
       <c r="F19">
-        <v>39.67486315461372</v>
+        <v>28.46383704268478</v>
       </c>
       <c r="G19">
-        <v>46.61326702594681</v>
+        <v>37.51371680962315</v>
       </c>
       <c r="H19">
-        <v>18.64773245627013</v>
+        <v>12.00974904020587</v>
       </c>
       <c r="I19">
-        <v>29.73289637788419</v>
+        <v>18.5581610830235</v>
       </c>
       <c r="J19">
-        <v>10.43060247763731</v>
+        <v>6.587082818148213</v>
       </c>
       <c r="K19">
-        <v>12.74118884063816</v>
+        <v>15.82731869951849</v>
       </c>
       <c r="L19">
-        <v>11.15758387727336</v>
+        <v>7.953598023637297</v>
       </c>
       <c r="M19">
-        <v>15.9660572256696</v>
+        <v>11.1736711088302</v>
       </c>
       <c r="N19">
-        <v>21.99906979793223</v>
+        <v>13.77343462401295</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.5861106303525</v>
+        <v>13.23408370251198</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.51948366540382</v>
+        <v>4.338578884044255</v>
       </c>
       <c r="E20">
-        <v>12.9723286349758</v>
+        <v>8.034555421426605</v>
       </c>
       <c r="F20">
-        <v>39.66801455987132</v>
+        <v>28.63331294903652</v>
       </c>
       <c r="G20">
-        <v>46.63111893648793</v>
+        <v>37.84980506715835</v>
       </c>
       <c r="H20">
-        <v>18.63626830030647</v>
+        <v>12.03325072001429</v>
       </c>
       <c r="I20">
-        <v>29.70324285134174</v>
+        <v>18.51078095602016</v>
       </c>
       <c r="J20">
-        <v>10.42970776613171</v>
+        <v>6.586745516732149</v>
       </c>
       <c r="K20">
-        <v>12.82179188761464</v>
+        <v>16.13134941502008</v>
       </c>
       <c r="L20">
-        <v>11.16530091761626</v>
+        <v>8.037763073453554</v>
       </c>
       <c r="M20">
-        <v>15.97701262538031</v>
+        <v>11.28934172593864</v>
       </c>
       <c r="N20">
-        <v>21.9765862627767</v>
+        <v>13.68998901584863</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.72442589992</v>
+        <v>13.90912756366465</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.519228777021909</v>
+        <v>4.388149893302691</v>
       </c>
       <c r="E21">
-        <v>12.96605250803083</v>
+        <v>8.042356308108593</v>
       </c>
       <c r="F21">
-        <v>39.65437738178337</v>
+        <v>29.22618307787377</v>
       </c>
       <c r="G21">
-        <v>46.70474975727949</v>
+        <v>39.00675250700384</v>
       </c>
       <c r="H21">
-        <v>18.60122557416582</v>
+        <v>12.12300515539416</v>
       </c>
       <c r="I21">
-        <v>29.60848001081868</v>
+        <v>18.36634034751359</v>
       </c>
       <c r="J21">
-        <v>10.42689664173747</v>
+        <v>6.586263353919289</v>
       </c>
       <c r="K21">
-        <v>13.09167183286675</v>
+        <v>17.11882723562479</v>
       </c>
       <c r="L21">
-        <v>11.19309184566209</v>
+        <v>8.319193781782094</v>
       </c>
       <c r="M21">
-        <v>16.01628831810688</v>
+        <v>11.67529677426593</v>
       </c>
       <c r="N21">
-        <v>21.90313073220548</v>
+        <v>13.4120880803236</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.81615197040081</v>
+        <v>14.33772822073509</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.519385187234845</v>
+        <v>4.421315100994184</v>
       </c>
       <c r="E22">
-        <v>12.9622491481731</v>
+        <v>8.048621966938391</v>
       </c>
       <c r="F22">
-        <v>39.65244574289806</v>
+        <v>29.63128411728377</v>
       </c>
       <c r="G22">
-        <v>46.76300743267556</v>
+        <v>39.78325797776111</v>
       </c>
       <c r="H22">
-        <v>18.58091453744396</v>
+        <v>12.19002052690176</v>
       </c>
       <c r="I22">
-        <v>29.55017562936882</v>
+        <v>18.28352306023052</v>
       </c>
       <c r="J22">
-        <v>10.42520435366046</v>
+        <v>6.586458649272968</v>
       </c>
       <c r="K22">
-        <v>13.26705619122902</v>
+        <v>17.73915763795604</v>
       </c>
       <c r="L22">
-        <v>11.21262596234529</v>
+        <v>8.501913522921981</v>
       </c>
       <c r="M22">
-        <v>16.04377087332548</v>
+        <v>11.92522708089452</v>
       </c>
       <c r="N22">
-        <v>21.85667203162186</v>
+        <v>13.23213393183384</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.76708197895713</v>
+        <v>14.11014478951646</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.519272258683912</v>
+        <v>4.403541608449095</v>
       </c>
       <c r="E23">
-        <v>12.96425179971213</v>
+        <v>8.045165891091855</v>
       </c>
       <c r="F23">
-        <v>39.65283834949908</v>
+        <v>29.41345214938626</v>
       </c>
       <c r="G23">
-        <v>46.73098957283273</v>
+        <v>39.36697572906434</v>
       </c>
       <c r="H23">
-        <v>18.59151773713232</v>
+        <v>12.15346853506528</v>
       </c>
       <c r="I23">
-        <v>29.58096177225329</v>
+        <v>18.3266251667252</v>
       </c>
       <c r="J23">
-        <v>10.42609432150565</v>
+        <v>6.586306016543615</v>
       </c>
       <c r="K23">
-        <v>13.17356046978804</v>
+        <v>17.41034612276669</v>
       </c>
       <c r="L23">
-        <v>11.20207591438533</v>
+        <v>8.404515460864129</v>
       </c>
       <c r="M23">
-        <v>16.02893862485119</v>
+        <v>11.79206511852724</v>
       </c>
       <c r="N23">
-        <v>21.88132659119717</v>
+        <v>13.32803707275267</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.58387405247928</v>
+        <v>13.22284253809327</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.519493307493977</v>
+        <v>4.337781136783695</v>
       </c>
       <c r="E24">
-        <v>12.97243626145532</v>
+        <v>8.034446520407156</v>
       </c>
       <c r="F24">
-        <v>39.66835538160755</v>
+        <v>28.62391829082687</v>
       </c>
       <c r="G24">
-        <v>46.63008715418754</v>
+        <v>37.8312435390415</v>
       </c>
       <c r="H24">
-        <v>18.6368847865085</v>
+        <v>12.03192031476527</v>
       </c>
       <c r="I24">
-        <v>29.70485296335401</v>
+        <v>18.51332880435245</v>
       </c>
       <c r="J24">
-        <v>10.42975616491087</v>
+        <v>6.586761650934165</v>
       </c>
       <c r="K24">
-        <v>12.81736828995986</v>
+        <v>16.11478227049989</v>
       </c>
       <c r="L24">
-        <v>11.16487008461279</v>
+        <v>8.033145658530044</v>
       </c>
       <c r="M24">
-        <v>15.976401663844</v>
+        <v>11.28299888395811</v>
       </c>
       <c r="N24">
-        <v>21.97781308776393</v>
+        <v>13.694561764689</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.39271244872119</v>
+        <v>12.21401983181386</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.521128906549457</v>
+        <v>4.269933717658474</v>
       </c>
       <c r="E25">
-        <v>12.9825495234807</v>
+        <v>8.027417255507341</v>
       </c>
       <c r="F25">
-        <v>39.71508838165555</v>
+        <v>27.84696708404912</v>
       </c>
       <c r="G25">
-        <v>46.56498846628491</v>
+        <v>36.2641899492632</v>
       </c>
       <c r="H25">
-        <v>18.69693744314867</v>
+        <v>11.93466037772946</v>
       </c>
       <c r="I25">
-        <v>29.85407091560747</v>
+        <v>18.76072574693569</v>
       </c>
       <c r="J25">
-        <v>10.43433083176724</v>
+        <v>6.589287442381925</v>
       </c>
       <c r="K25">
-        <v>12.43085002537498</v>
+        <v>14.60779898036683</v>
       </c>
       <c r="L25">
-        <v>11.13073278361133</v>
+        <v>7.628757543871675</v>
       </c>
       <c r="M25">
-        <v>15.92767758453951</v>
+        <v>10.72609426810519</v>
       </c>
       <c r="N25">
-        <v>22.08857827405298</v>
+        <v>14.09814867204775</v>
       </c>
       <c r="O25">
         <v>0</v>
